--- a/spreadsheets/country_parameters.xlsx
+++ b/spreadsheets/country_parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20343"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrag0004\Models\SNAP_TB_BMC_MED\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrag0004\Models\SNAP-TB\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A296D09-A224-42AA-9F21-F36EFAFBB4E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8221233B-56E3-486F-92E2-36A2E1E683CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16400" windowHeight="6600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t>population</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>prevalence_by_age_record_time</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
   </si>
 </sst>
 </file>
@@ -764,9 +767,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -799,7 +802,9 @@
       <c r="F1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="9"/>
+      <c r="G1" s="9" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -1072,7 +1077,9 @@
       <c r="F20" s="30">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="G20" s="11"/>
+      <c r="G20" s="11">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">

--- a/spreadsheets/country_parameters.xlsx
+++ b/spreadsheets/country_parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrag0004\Models\SNAP-TB\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.monash.edu\home\User048\rrag0004\Desktop\config_snap_tb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8221233B-56E3-486F-92E2-36A2E1E683CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FC1DCD-47C5-456D-882F-BC2400523630}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16400" windowHeight="6600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="6600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="1" r:id="rId1"/>
@@ -767,26 +767,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.7265625" style="4" customWidth="1"/>
-    <col min="2" max="4" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="37.7109375" style="4" customWidth="1"/>
+    <col min="2" max="4" width="8.85546875" style="1"/>
     <col min="5" max="5" width="11" style="29" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" style="13" customWidth="1"/>
-    <col min="8" max="14" width="8.81640625" style="1"/>
-    <col min="15" max="15" width="9.26953125" style="1" customWidth="1"/>
-    <col min="16" max="17" width="8.81640625" style="1"/>
-    <col min="18" max="19" width="9.1796875" customWidth="1"/>
-    <col min="20" max="16384" width="8.81640625" style="1"/>
+    <col min="6" max="6" width="10.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="13" customWidth="1"/>
+    <col min="8" max="14" width="8.85546875" style="1"/>
+    <col min="15" max="15" width="9.28515625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="8.85546875" style="1"/>
+    <col min="18" max="19" width="9.140625" customWidth="1"/>
+    <col min="20" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>41</v>
       </c>
@@ -806,14 +806,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="24"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -834,49 +834,49 @@
       </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="24"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="24"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="24"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="24"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="24"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="24"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -897,7 +897,7 @@
       </c>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -918,7 +918,7 @@
       </c>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>56</v>
       </c>
@@ -939,21 +939,21 @@
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="24"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="24"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>59</v>
       </c>
@@ -974,7 +974,7 @@
       </c>
       <c r="G15" s="22"/>
     </row>
-    <row r="16" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>60</v>
       </c>
@@ -995,7 +995,7 @@
       </c>
       <c r="G16" s="22"/>
     </row>
-    <row r="17" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>61</v>
       </c>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="G17" s="22"/>
     </row>
-    <row r="18" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>62</v>
       </c>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="G18" s="22"/>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>11</v>
       </c>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>12</v>
       </c>
@@ -1081,42 +1081,42 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="25"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="25"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="25"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="25"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="25"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>18</v>
       </c>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>19</v>
       </c>
@@ -1158,14 +1158,14 @@
       </c>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="25"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>21</v>
       </c>
@@ -1186,35 +1186,35 @@
       </c>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E30" s="25"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E31" s="25"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E32" s="25"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E33" s="25"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>26</v>
       </c>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>27</v>
       </c>
@@ -1256,21 +1256,21 @@
       </c>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E36" s="25"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E37" s="25"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>31</v>
       </c>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>32</v>
       </c>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>33</v>
       </c>
@@ -1321,21 +1321,21 @@
       </c>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E41" s="25"/>
       <c r="G41" s="11"/>
     </row>
-    <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E42" s="25"/>
       <c r="G42" s="11"/>
     </row>
-    <row r="43" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>37</v>
       </c>
@@ -1350,21 +1350,21 @@
       </c>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E44" s="25"/>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E45" s="25"/>
       <c r="G45" s="11"/>
     </row>
-    <row r="46" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>51</v>
       </c>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>52</v>
       </c>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>53</v>
       </c>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>57</v>
       </c>
@@ -1450,7 +1450,7 @@
       <c r="R49" s="17"/>
       <c r="S49" s="17"/>
     </row>
-    <row r="50" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>58</v>
       </c>
@@ -1473,12 +1473,12 @@
       <c r="R50" s="17"/>
       <c r="S50" s="17"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
         <v>64</v>
       </c>
@@ -1543,9 +1543,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
